--- a/ratio/ratio.xlsx
+++ b/ratio/ratio.xlsx
@@ -14,13 +14,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Insecure CXL</t>
+  </si>
+  <si>
+    <t>Adaptive</t>
+  </si>
+  <si>
+    <t>XTS +GCM</t>
+  </si>
+  <si>
+    <t>CTR +GCM -SC</t>
+  </si>
+  <si>
+    <t>CL +GCM +ECC</t>
+  </si>
+  <si>
+    <t>CL +GCM -ECC</t>
+  </si>
+  <si>
+    <t>Integrity Tree</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,12 +54,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -74,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -82,35 +98,32 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,262 +427,174 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0.7848478739</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.6512452291</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.6880791925</v>
+        <v>100</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.217342132</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.274132266</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.495406074</v>
       </c>
       <c r="E2" s="3">
-        <v>0.7371590525</v>
+        <v>1.542686152</v>
       </c>
       <c r="F2" s="3">
-        <v>0.7832605846</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0.6508578815</v>
+        <v>1.47772858</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1.719190752</v>
       </c>
       <c r="H2" s="3">
-        <v>0.5816690201</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.7568176041</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0.6676777177</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.8214617516</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0.7596614547</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0.6687146838</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0.5779681316</v>
+        <v>1.730199202</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.8196065714</v>
-      </c>
-      <c r="C3" s="8">
-        <v>0.6954234326</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.7364793208</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.163923912</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.220097587</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.39709145</v>
       </c>
       <c r="E3" s="3">
-        <v>0.7676679479</v>
+        <v>1.442292088</v>
       </c>
       <c r="F3" s="3">
-        <v>0.8171013955</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.6771336221</v>
+        <v>1.382557646</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.614886876</v>
       </c>
       <c r="H3" s="3">
-        <v>0.6192384215</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.7900209739</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.7129831725</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.8591626907</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.7926184974</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.7157727578</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0.5852812495</v>
+        <v>1.708580278</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0.856580648</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.7464356299</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.7925868754</v>
+        <v>50</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.109966875</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.167432398</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.299027403</v>
       </c>
       <c r="E4" s="3">
-        <v>0.8007111128</v>
+        <v>1.35279433</v>
       </c>
       <c r="F4" s="3">
-        <v>0.8546520307</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.7050140429</v>
+        <v>1.285465095</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.512165088</v>
       </c>
       <c r="H4" s="3">
-        <v>0.6613034568</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.8241838717</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.7660105229</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.9009277867</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.8284436834</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.7698067013</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0.6046521287</v>
+        <v>1.653843512</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="9">
-        <v>0.25</v>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="7">
+        <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>0.898344131</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.805869836</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.8600847685</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.8373472761</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.8953572569</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.7329530446</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.7086685598</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.8630098345</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.8310703081</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.9470780217</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.86673467</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.8336101516</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.6254399974</v>
+        <v>1.055879217</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.113159162</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.199601514</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.261090227</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.18326763</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.411096889</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.598874399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="7">
-        <v>0.9443696265</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.877945451</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0.9417551106</v>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.058907415</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.099201741</v>
       </c>
       <c r="E6" s="3">
-        <v>0.8779673304</v>
+        <v>1.143997051</v>
       </c>
       <c r="F6" s="3">
-        <v>0.9417251103</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.7637670191</v>
+        <v>1.084733246</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.30975255</v>
       </c>
       <c r="H6" s="3">
-        <v>0.7635029991</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.9055005238</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.9051958956</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.9092591262</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.9097511064</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0.6470428383</v>
+        <v>1.545492726</v>
       </c>
     </row>
   </sheetData>
